--- a/public/template_xls/template_cloud.xlsx
+++ b/public/template_xls/template_cloud.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\ies\public\template_xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\template_xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88B7650-9B04-4318-95E7-5F9A5D198699}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90FFE00E-A310-4E0F-8602-BFCAB9512033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F36BE757-7840-428F-B9FD-226C1B34BFAA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>IP Address</t>
   </si>
@@ -92,14 +92,18 @@
     <t>Jenis Payment</t>
   </si>
   <si>
-    <t>Subcription</t>
+    <t>Biaya</t>
+  </si>
+  <si>
+    <t>Memo</t>
   </si>
   <si>
     <r>
       <t xml:space="preserve">*Note :
 - Kolom isian tidak boleh kosong
 - Input Cluster ID, OS ID dan Aplikasi ID sesuai dengan ID yang terdaftar
-- Kolom Memo, isi dengan kosong
+- Jenis server diisi dengan cara memilih dropdown yang sudah tersedia
+- Kolom Memo, isi dengan kata "kosong" (tanpa tanda petik)
 - Pastikan seluruh kolom yang kosong </t>
     </r>
     <r>
@@ -123,12 +127,6 @@
       </rPr>
       <t>, dengan cara blok seluruh kolom yang kosong kemudian klik kanan -&gt; pilih delete  -&gt; ok</t>
     </r>
-  </si>
-  <si>
-    <t>Biaya</t>
-  </si>
-  <si>
-    <t>Memo</t>
   </si>
 </sst>
 </file>
@@ -198,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +211,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,7 +531,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +556,7 @@
     <col min="18" max="16384" width="9.7109375" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="3" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -583,7 +584,7 @@
       <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -596,13 +597,13 @@
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -637,7 +638,7 @@
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L2">
         <v>1</v>
